--- a/excel/kuromi_hex.xlsx
+++ b/excel/kuromi_hex.xlsx
@@ -26,7 +26,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -81,16 +80,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -437,9 +451,9 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -478,9 +492,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -508,9 +522,9 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -519,10 +533,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -549,9 +563,9 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -560,8 +574,8 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
@@ -588,11 +602,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -602,12 +616,12 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -627,13 +641,13 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -643,14 +657,14 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -663,17 +677,17 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
@@ -684,37 +698,37 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -725,8 +739,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -734,28 +748,28 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -766,17 +780,17 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -785,18 +799,18 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -807,8 +821,8 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -831,13 +845,13 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -848,9 +862,9 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -859,11 +873,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -871,14 +885,14 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -889,37 +903,37 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -930,37 +944,37 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="4"/>
+      <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -974,7 +988,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -982,22 +996,22 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -1014,8 +1028,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1024,22 +1038,22 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -1055,32 +1069,32 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -1096,32 +1110,32 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
@@ -1136,34 +1150,34 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="5"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -1177,34 +1191,34 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="5"/>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -1218,34 +1232,34 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -1259,11 +1273,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1271,22 +1285,22 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -1300,34 +1314,34 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -1341,34 +1355,34 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -1383,32 +1397,32 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
@@ -1424,32 +1438,32 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -1466,30 +1480,30 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -1510,26 +1524,26 @@
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="2"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="5"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
@@ -1548,28 +1562,28 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="5"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="2"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
@@ -1589,26 +1603,26 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="2"/>
+      <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="2"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -1630,27 +1644,27 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -1672,25 +1686,25 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="2"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -1714,23 +1728,23 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
